--- a/MAP表1.xlsx
+++ b/MAP表1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,22 @@
   </si>
   <si>
     <t>有限公司C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限公司D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限公司E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131415</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,7 +540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -576,13 +592,21 @@
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="24" customHeight="1">
       <c r="A7" s="2"/>
